--- a/bluegreen.xlsx
+++ b/bluegreen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhpham/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA1A79BD-D32B-684B-BFCE-29724B1CECA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950AE821-E034-934F-9736-95511D8DFAE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5620" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{B70648EB-34A4-9F4B-95E2-ACA665A8324B}"/>
+    <workbookView xWindow="-5620" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{B70648EB-34A4-9F4B-95E2-ACA665A8324B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Column</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPDATE </t>
   </si>
   <si>
@@ -55,33 +52,115 @@
 - drop column after deployment completed in both green/blue.</t>
   </si>
   <si>
-    <t>1. Analyse compatibility of changes to both blue/green environment
+    <t>compatible with both blue/green</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Analyse compatibility of changes to both blue/green environment
 2. In case of incompatibility, apply UPDATE = ADD + DROP
  (i.e column A decimal (19,6)  -&gt; decimal (19,7))
 *  in green version
-           1.   create new column A1 decimal(19,7) and assign default value for A if non-nullable
-           2.   entity class, @column("A) decimal (19,6) --&gt; @Column("A1") decimal(19,7)
+           1.   create new column A1 decimal(19,7) and assign default value for A and A1 if non-nullable
+           2.   entity class, @column(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>"A"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) decimal (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>19,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) --&gt; @Column(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>"A1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) decimal(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>19,7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
            3.   deploy to Green
  * in blue version 
-           1. only chang size of column("A") from (19,6) to (19,7)
+           1. entity class,  @column("A") decimal (19,6) to (19,7)
            1. after green verification done, deploy to blue
            2. blue is ok then deploy same blue code to green.
  * run script: 
    -  set A = A1 where A is null or A = 'default value' 
    - drop column A1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,10 +195,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,17 +517,17 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="50" style="3" customWidth="1"/>
     <col min="3" max="3" width="46.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="32" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -459,64 +538,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="57" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="57" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="260" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="260" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
